--- a/HW3/results.xlsx
+++ b/HW3/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NZXT\Desktop\Chandro\@UNIPD\Computer Engineering\Big Data Computing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NZXT\Desktop\Chandro\@UNIPD\Computer Engineering\Big Data Computing\HW1\Big-Data-Homeworks\HW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374F674B-4663-4C94-884F-03B31E4CBF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44BF98C-3A2A-404E-AC58-299CFE4DFD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13284" yWindow="4440" windowWidth="16440" windowHeight="12216" xr2:uid="{4578F184-FA94-49DC-AFA0-FC2849E72891}"/>
+    <workbookView xWindow="13776" yWindow="3036" windowWidth="16440" windowHeight="12216" xr2:uid="{4578F184-FA94-49DC-AFA0-FC2849E72891}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>HIGGS-REDUCED-7D.txt</t>
   </si>
@@ -75,6 +75,39 @@
   </si>
   <si>
     <t>k=10, z=150, L=4</t>
+  </si>
+  <si>
+    <t>G040HW3.py</t>
+  </si>
+  <si>
+    <t>Mattia_G040HW3.py</t>
+  </si>
+  <si>
+    <t>1 guess:  0.734986810625</t>
+  </si>
+  <si>
+    <t>1 guess:  0.840101561117</t>
+  </si>
+  <si>
+    <t>1 guess: 1.0104694557</t>
+  </si>
+  <si>
+    <t>1 guess: 1.16424097605</t>
+  </si>
+  <si>
+    <t>Mattia_G040HW3_alt.py</t>
+  </si>
+  <si>
+    <t>1 guess:   0.731711950188</t>
+  </si>
+  <si>
+    <t>1 guess:  0,827088437184</t>
+  </si>
+  <si>
+    <t>1 guess:1.02156455097</t>
+  </si>
+  <si>
+    <t>1 guess: 1.13881129172</t>
   </si>
 </sst>
 </file>
@@ -238,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,6 +309,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -590,18 +624,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CA2B98-85F9-430F-B7E3-D1AB34ED0103}">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="6" width="20.21875" customWidth="1"/>
+    <col min="3" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>0</v>
@@ -719,9 +758,283 @@
         <v>5.8468824827267696</v>
       </c>
     </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="20"/>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13">
+        <v>11033.848047256401</v>
+      </c>
+      <c r="D13" s="14">
+        <v>7110.3091239929199</v>
+      </c>
+      <c r="E13" s="14">
+        <v>5779.8087596893301</v>
+      </c>
+      <c r="F13" s="15">
+        <v>5262.9220485687201</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>382030.13157844503</v>
+      </c>
+      <c r="D14" s="8">
+        <v>185249.561548233</v>
+      </c>
+      <c r="E14" s="8">
+        <v>95050.602912902803</v>
+      </c>
+      <c r="F14" s="9">
+        <v>47555.873870849602</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7">
+        <v>47.049045562744098</v>
+      </c>
+      <c r="D15" s="8">
+        <v>91.557979583740206</v>
+      </c>
+      <c r="E15" s="8">
+        <v>275.38132667541498</v>
+      </c>
+      <c r="F15" s="9">
+        <v>873.30675125122002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>23391.869544982899</v>
+      </c>
+      <c r="D16" s="8">
+        <v>11018.8813209533</v>
+      </c>
+      <c r="E16" s="8">
+        <v>5657.9091548919596</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3115.9551143646199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10">
+        <v>8.9659073750600005</v>
+      </c>
+      <c r="D17" s="11">
+        <v>7.8127760406300002</v>
+      </c>
+      <c r="E17" s="11">
+        <v>6.2590091048599996</v>
+      </c>
+      <c r="F17" s="12">
+        <v>6.0328982150500003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="13">
+        <v>17985.906600952101</v>
+      </c>
+      <c r="D23" s="14">
+        <v>7281.8796634674</v>
+      </c>
+      <c r="E23" s="14">
+        <v>5518.1303024291901</v>
+      </c>
+      <c r="F23" s="15">
+        <v>5147.2043991088804</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>7714.9672508239701</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3214.1394615173299</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1424.3946075439401</v>
+      </c>
+      <c r="F24" s="9">
+        <v>902.07028388977005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>33.380270004272397</v>
+      </c>
+      <c r="D25" s="8">
+        <v>87.721586227416907</v>
+      </c>
+      <c r="E25" s="8">
+        <v>280.45439720153797</v>
+      </c>
+      <c r="F25">
+        <v>872.94197082519497</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2736.0796928405698</v>
+      </c>
+      <c r="D26" s="21">
+        <v>844.47073936462402</v>
+      </c>
+      <c r="E26" s="8">
+        <v>462.55159378051701</v>
+      </c>
+      <c r="F26" s="9">
+        <v>332.104682922363</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="10">
+        <v>8.8525628932899991</v>
+      </c>
+      <c r="D27" s="11">
+        <v>7.5348720404199998</v>
+      </c>
+      <c r="E27" s="11">
+        <v>6.6092049986900001</v>
+      </c>
+      <c r="F27" s="12">
+        <v>5.95625661476</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
